--- a/src/templates/PersonalReportTemplate.xlsx
+++ b/src/templates/PersonalReportTemplate.xlsx
@@ -13,22 +13,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Nome: {d.nome}</t>
-  </si>
-  <si>
-    <t>Sexo: {d.sexo}</t>
-  </si>
-  <si>
-    <t>Nascimento: {d.data_nascimento}</t>
-  </si>
-  <si>
-    <t>Grupo: {d.grupo}</t>
-  </si>
-  <si>
-    <t>Batismo: {d.data_batismo}</t>
-  </si>
-  <si>
-    <t>Privilégio: {d.privilegio}</t>
+    <t>Nome: {d.name}</t>
+  </si>
+  <si>
+    <t>Sexo: {d.sex}</t>
+  </si>
+  <si>
+    <t>Nascimento: {d.birthdate}</t>
+  </si>
+  <si>
+    <t>Grupo: {d.hopeGroup}</t>
+  </si>
+  <si>
+    <t>Batismo: {d.baptism}</t>
+  </si>
+  <si>
+    <t>Privilégio: {d.privilege}</t>
   </si>
   <si>
     <t>Mês/Ano</t>
@@ -52,53 +52,53 @@
     <t>Observação</t>
   </si>
   <si>
-    <t>{d.dados[i].mesAno}</t>
-  </si>
-  <si>
-    <t>{d.dados[i].publicacoes}</t>
-  </si>
-  <si>
-    <t>{d.dados[i].videos}</t>
-  </si>
-  <si>
-    <t>{d.dados[i].horas}</t>
-  </si>
-  <si>
-    <t>{d.dados[i].revisitas}</t>
-  </si>
-  <si>
-    <t>{d.dados[i].estudos}</t>
-  </si>
-  <si>
-    <t>{d.dados[i].obs}</t>
-  </si>
-  <si>
-    <t>{d.dados[i+1].mesAno}</t>
-  </si>
-  <si>
-    <t>{d.dados[i+1].publicacoes}</t>
-  </si>
-  <si>
-    <t>{d.dados[i+1].videos}</t>
-  </si>
-  <si>
-    <t>{d.dados[i+1].horas}</t>
-  </si>
-  <si>
-    <t>{d.dados[i+1].revisitas}</t>
-  </si>
-  <si>
-    <t>{d.dados[i+1].estudos}</t>
-  </si>
-  <si>
-    <t>{d.dados[+i].obs}</t>
+    <t>{d.data[i].date}</t>
+  </si>
+  <si>
+    <t>{d.data[i].publishers}</t>
+  </si>
+  <si>
+    <t>{d.data[i].videos}</t>
+  </si>
+  <si>
+    <t>{d.data[i].hours}</t>
+  </si>
+  <si>
+    <t>{d.data[i].revisits}</t>
+  </si>
+  <si>
+    <t>{d.data[i].studies}</t>
+  </si>
+  <si>
+    <t>{d.data[i].obs}</t>
+  </si>
+  <si>
+    <t>{d.data[i+1].date}</t>
+  </si>
+  <si>
+    <t>{d.data[i+1].publishers}</t>
+  </si>
+  <si>
+    <t>{d.data[i+1].videos}</t>
+  </si>
+  <si>
+    <t>{d.data[i+1].hours}</t>
+  </si>
+  <si>
+    <t>{d.data[i+1].revisits}</t>
+  </si>
+  <si>
+    <t>{d.data[i+1].studies}</t>
+  </si>
+  <si>
+    <t>{d.data[+i].obs}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -119,10 +119,6 @@
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -223,40 +219,39 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="9" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -265,8 +260,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -486,7 +479,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="14.43"/>
+    <col customWidth="1" min="1" max="6" width="14.43"/>
     <col customWidth="1" min="7" max="7" width="29.57"/>
   </cols>
   <sheetData>
@@ -500,110 +493,110 @@
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" ht="21.0" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1600,8 +1593,6 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
